--- a/output/勤怠表_202501_小島知将.xlsx
+++ b/output/勤怠表_202501_小島知将.xlsx
@@ -1394,7 +1394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A2:I99"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1407,13 +1407,6 @@
     <col width="9" customWidth="1" style="1" min="12" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>小島　知将</t>
-        </is>
-      </c>
-    </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" s="57" t="inlineStr">
         <is>
@@ -1462,7 +1455,11 @@
           <t>氏名</t>
         </is>
       </c>
-      <c r="G6" s="49" t="n"/>
+      <c r="G6" s="49" t="inlineStr">
+        <is>
+          <t>小島　知将</t>
+        </is>
+      </c>
       <c r="H6" s="65" t="n"/>
       <c r="I6" s="66" t="n"/>
     </row>
